--- a/biology/Zoologie/Askeptosauridae/Askeptosauridae.xlsx
+++ b/biology/Zoologie/Askeptosauridae/Askeptosauridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Askeptosauridae (Askeptosauridés en français) sont une super-famille éteinte de « reptiles » marins[a] de l'ordre des thalattosauriens. Cette famille est rattachée aux Askeptosauroidea. Les Askeptosauridae ont vécu au cours du Trias, leurs fossiles sont connus en Chine et en Europe (Suisse et Italie).
-Les Askeptosauridae incluent, selon X. C. Wu et ses collègues en 2009, les genres Miodentosaurus, Anshunsaurus et Askeptosaurus[2],[3].
-Selon Zhao Li-Jun et ses collègues en 2013, cette famille n'est pas valide et les genres Miodentosaurus, Endennasaurus, Anshunsaurus et Askeptosaurus sont directement attachés aux Askeptosauroidea[4].
+Les Askeptosauridae incluent, selon X. C. Wu et ses collègues en 2009, les genres Miodentosaurus, Anshunsaurus et Askeptosaurus,.
+Selon Zhao Li-Jun et ses collègues en 2013, cette famille n'est pas valide et les genres Miodentosaurus, Endennasaurus, Anshunsaurus et Askeptosaurus sont directement attachés aux Askeptosauroidea.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Askeptosauridae a été créée en 1952 pour inclure le genre Askeptosaurus[1]. En 2000, le genre Anshunsaurus, qui comprend deux espèces, a été ajouté à la famille[5]. Dans une analyse phylogénétique faite en 2005, le genre Endennasaurus a été inclus dans les Askeptosauridae[6]. La même année, une nouvelle étude a placé Endennasaurus en dehors des Askeptosauridae en tant que membre primitif des Askeptosauroidea[3]. Des études plus récentes (2009) ont ajouté le genre chinois Miodentosaurus dans la famille[2]. 
-On trouvera ci-dessous un cladogramme modifié de Wu (2009) montrant les relations phylogénétiques des askeptosauridés[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Askeptosauridae a été créée en 1952 pour inclure le genre Askeptosaurus. En 2000, le genre Anshunsaurus, qui comprend deux espèces, a été ajouté à la famille. Dans une analyse phylogénétique faite en 2005, le genre Endennasaurus a été inclus dans les Askeptosauridae. La même année, une nouvelle étude a placé Endennasaurus en dehors des Askeptosauridae en tant que membre primitif des Askeptosauroidea. Des études plus récentes (2009) ont ajouté le genre chinois Miodentosaurus dans la famille. 
+On trouvera ci-dessous un cladogramme modifié de Wu (2009) montrant les relations phylogénétiques des askeptosauridés : 
 </t>
         </is>
       </c>
